--- a/Documents/Thesis Report Table.xlsx
+++ b/Documents/Thesis Report Table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="51">
   <si>
     <t>Attributes</t>
   </si>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,27 +474,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -517,6 +496,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,6 +1721,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95243</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Cross 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2378960">
+          <a:off x="704843" y="5110822"/>
+          <a:ext cx="256477" cy="228848"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1795462" y="5462589"/>
+          <a:ext cx="438150" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2028,12 +2142,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3354,12 +3468,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3467,17 +3581,17 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="3" t="s">
         <v>1</v>
       </c>
@@ -3489,10 +3603,10 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
@@ -3504,10 +3618,10 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3519,10 +3633,10 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3534,10 +3648,10 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
@@ -3549,10 +3663,10 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
@@ -3564,16 +3678,16 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3581,7 +3695,7 @@
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="30">
         <v>0.72199999999999998</v>
       </c>
     </row>
@@ -3589,7 +3703,7 @@
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="30">
         <v>0.32</v>
       </c>
     </row>
@@ -3597,7 +3711,7 @@
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="30">
         <v>0.2</v>
       </c>
     </row>
@@ -3620,13 +3734,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B3:I23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="17.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -3639,12 +3753,12 @@
     <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
@@ -3664,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
@@ -3704,21 +3818,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="31"/>
       <c r="E6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="31"/>
       <c r="H6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>30</v>
       </c>
@@ -3738,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
@@ -3758,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>32</v>
       </c>
@@ -3778,15 +3892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>2</v>
       </c>
@@ -3806,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
@@ -3846,7 +3960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
@@ -3866,21 +3980,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="31"/>
       <c r="E15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="31"/>
       <c r="H15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -3900,7 +4014,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -3920,7 +4034,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
@@ -3940,15 +4054,15 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
         <v>44</v>
       </c>
@@ -3964,7 +4078,7 @@
       </c>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>30</v>
       </c>
@@ -3984,7 +4098,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>31</v>
       </c>
@@ -4004,7 +4118,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>32</v>
       </c>
@@ -4024,12 +4138,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:9" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4037,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="B3:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4059,14 +4167,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="36"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="G3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4078,10 +4186,10 @@
       <c r="H4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4092,7 +4200,7 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -4106,7 +4214,7 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -4116,29 +4224,29 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="42"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="3" t="s">
         <v>1</v>
       </c>
@@ -4150,10 +4258,10 @@
       <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="20" t="s">
@@ -4162,10 +4270,10 @@
       <c r="H10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4176,7 +4284,7 @@
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4188,7 +4296,7 @@
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="32" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -4202,7 +4310,7 @@
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4214,7 +4322,7 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -4228,7 +4336,7 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4240,7 +4348,7 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -4254,7 +4362,7 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -4268,18 +4376,121 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="40">
+        <v>0</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="40">
+        <v>1</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documents/Thesis Report Table.xlsx
+++ b/Documents/Thesis Report Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="51">
   <si>
     <t>Attributes</t>
   </si>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2919,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="B2:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3252,8 +3252,12 @@
       <c r="F20" s="22">
         <v>0.64</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -3268,8 +3272,12 @@
       <c r="F21" s="22">
         <v>0.6</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
@@ -3278,8 +3286,12 @@
       <c r="C22" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
@@ -3294,8 +3306,12 @@
       <c r="F23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E24" s="14">
@@ -3304,8 +3320,12 @@
       <c r="F24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E25" s="14">
@@ -3314,8 +3334,12 @@
       <c r="F25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E26" s="21" t="s">
@@ -3445,6 +3469,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4147,7 +4172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
